--- a/REGULAR/CCR/MATIENZO, NORMITA.xlsx
+++ b/REGULAR/CCR/MATIENZO, NORMITA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1090,6 +1090,12 @@
   </si>
   <si>
     <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/21,22/2023</t>
   </si>
 </sst>
 </file>
@@ -3503,7 +3509,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K564" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K566" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3879,12 +3885,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K564"/>
+  <dimension ref="A2:K566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4140" topLeftCell="A502" activePane="bottomLeft"/>
+      <pane ySplit="4140" topLeftCell="A526" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E516" sqref="E516"/>
+      <selection pane="bottomLeft" activeCell="K541" sqref="K541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4053,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>132.54099999999994</v>
+        <v>135.79099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4057,7 +4063,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>156.875</v>
+        <v>162.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4220,7 +4226,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>132.54099999999994</v>
+        <v>135.79099999999994</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -4230,7 +4236,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>156.875</v>
+        <v>162.125</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
@@ -8851,7 +8857,7 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>156.875</v>
+        <v>162.125</v>
       </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
@@ -16192,13 +16198,15 @@
       <c r="B535" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C535" s="13"/>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D535" s="39"/>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G535" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
@@ -16212,13 +16220,15 @@
         <v>45139</v>
       </c>
       <c r="B536" s="20"/>
-      <c r="C536" s="13"/>
+      <c r="C536" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D536" s="39"/>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G536" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
@@ -16230,13 +16240,15 @@
         <v>45170</v>
       </c>
       <c r="B537" s="20"/>
-      <c r="C537" s="13"/>
+      <c r="C537" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G537" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H537" s="39"/>
       <c r="I537" s="9"/>
@@ -16248,13 +16260,15 @@
         <v>45200</v>
       </c>
       <c r="B538" s="20"/>
-      <c r="C538" s="13"/>
+      <c r="C538" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D538" s="39"/>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G538" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H538" s="39"/>
       <c r="I538" s="9"/>
@@ -16265,27 +16279,37 @@
       <c r="A539" s="40">
         <v>45231</v>
       </c>
-      <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
+      <c r="B539" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H539" s="39"/>
+      <c r="G539" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H539" s="39">
+        <v>1</v>
+      </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="48">
+        <v>45238</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B540" s="20"/>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C540" s="13"/>
-      <c r="D540" s="39"/>
+      <c r="D540" s="39">
+        <v>1</v>
+      </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
       <c r="G540" s="13" t="str">
@@ -16295,15 +16319,21 @@
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="48">
+        <v>45254</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B541" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B541" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>2</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -16313,11 +16343,13 @@
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A542" s="40">
-        <v>45323</v>
+      <c r="A542" s="47" t="s">
+        <v>352</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16335,7 +16367,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16353,7 +16385,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16371,7 +16403,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16389,7 +16421,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16407,7 +16439,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16425,7 +16457,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16443,7 +16475,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16461,7 +16493,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16479,7 +16511,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16497,7 +16529,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16515,7 +16547,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16533,7 +16565,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16551,7 +16583,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16569,7 +16601,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16587,7 +16619,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16605,7 +16637,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16623,7 +16655,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16641,7 +16673,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16658,7 +16690,9 @@
       <c r="K560" s="20"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40"/>
+      <c r="A561" s="40">
+        <v>45839</v>
+      </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
       <c r="D561" s="39"/>
@@ -16674,7 +16708,9 @@
       <c r="K561" s="20"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+      <c r="A562" s="40">
+        <v>45870</v>
+      </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -16706,20 +16742,52 @@
       <c r="K563" s="20"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="51"/>
-      <c r="B564" s="15"/>
-      <c r="C564" s="41"/>
-      <c r="D564" s="42"/>
+      <c r="A564" s="40"/>
+      <c r="B564" s="20"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="39"/>
       <c r="E564" s="9"/>
-      <c r="F564" s="15"/>
-      <c r="G564" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H564" s="42"/>
+      <c r="F564" s="20"/>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H564" s="39"/>
       <c r="I564" s="9"/>
-      <c r="J564" s="12"/>
-      <c r="K564" s="15"/>
+      <c r="J564" s="11"/>
+      <c r="K564" s="20"/>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A565" s="40"/>
+      <c r="B565" s="20"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="39"/>
+      <c r="E565" s="9"/>
+      <c r="F565" s="20"/>
+      <c r="G565" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H565" s="39"/>
+      <c r="I565" s="9"/>
+      <c r="J565" s="11"/>
+      <c r="K565" s="20"/>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A566" s="51"/>
+      <c r="B566" s="15"/>
+      <c r="C566" s="41"/>
+      <c r="D566" s="42"/>
+      <c r="E566" s="9"/>
+      <c r="F566" s="15"/>
+      <c r="G566" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="42"/>
+      <c r="I566" s="9"/>
+      <c r="J566" s="12"/>
+      <c r="K566" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16891,7 +16959,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>289.41599999999994</v>
+        <v>297.91599999999994</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
